--- a/xlsx/country_comparison/field_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_manual_positive.xlsx
@@ -65,12 +65,12 @@
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
@@ -80,10 +80,16 @@
     <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
-    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
@@ -92,28 +98,22 @@
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
-    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
-  </si>
-  <si>
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
     <t xml:space="preserve">Education</t>
@@ -509,40 +509,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.176948673858409</v>
+        <v>0.185614433213153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.155206454498852</v>
+        <v>0.155049049537846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.165760187529138</v>
+        <v>0.165544639948679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.132688996855489</v>
+        <v>0.132548301649036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.170569645844742</v>
+        <v>0.170338835141693</v>
       </c>
       <c r="G2" t="n">
-        <v>0.179335609610556</v>
+        <v>0.17902549185942</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13071460385036</v>
+        <v>0.130440554639283</v>
       </c>
       <c r="I2" t="n">
-        <v>0.167744724240085</v>
+        <v>0.167526866325348</v>
       </c>
       <c r="J2" t="n">
-        <v>0.121355113394281</v>
+        <v>0.123791350246348</v>
       </c>
       <c r="K2" t="n">
-        <v>0.148495010217095</v>
+        <v>0.148804381811793</v>
       </c>
       <c r="L2" t="n">
-        <v>0.217623806326528</v>
+        <v>0.217293772928453</v>
       </c>
       <c r="M2" t="n">
-        <v>0.231973932858366</v>
+        <v>0.232271595236453</v>
       </c>
     </row>
     <row r="3">
@@ -550,40 +550,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.127140761791366</v>
+        <v>0.127501586554575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104596364579166</v>
+        <v>0.104719010515957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.121129745948714</v>
+        <v>0.120972233918533</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0784908462762879</v>
+        <v>0.0784076194369622</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105397921368922</v>
+        <v>0.105255299460958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.120168576782413</v>
+        <v>0.119960774166581</v>
       </c>
       <c r="H3" t="n">
-        <v>0.102948798652095</v>
+        <v>0.104829507974419</v>
       </c>
       <c r="I3" t="n">
-        <v>0.109001218234964</v>
+        <v>0.10885965325749</v>
       </c>
       <c r="J3" t="n">
-        <v>0.132777811109319</v>
+        <v>0.132409655325916</v>
       </c>
       <c r="K3" t="n">
-        <v>0.182170110782153</v>
+        <v>0.180269608160368</v>
       </c>
       <c r="L3" t="n">
-        <v>0.180026939982192</v>
+        <v>0.179753923423249</v>
       </c>
       <c r="M3" t="n">
-        <v>0.145992376067682</v>
+        <v>0.128000592267428</v>
       </c>
     </row>
     <row r="4">
@@ -591,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119249582821528</v>
+        <v>0.1148158587056</v>
       </c>
       <c r="C4" t="n">
-        <v>0.136879279973913</v>
+        <v>0.136860857005065</v>
       </c>
       <c r="D4" t="n">
-        <v>0.120324740670292</v>
+        <v>0.120168275435139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.109488055833458</v>
+        <v>0.109371961470061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.155975584689061</v>
+        <v>0.155764522315201</v>
       </c>
       <c r="G4" t="n">
-        <v>0.138918781982572</v>
+        <v>0.140407814592752</v>
       </c>
       <c r="H4" t="n">
-        <v>0.16014865621119</v>
+        <v>0.159812897148339</v>
       </c>
       <c r="I4" t="n">
-        <v>0.155415205525748</v>
+        <v>0.155213360533319</v>
       </c>
       <c r="J4" t="n">
-        <v>0.116143119897375</v>
+        <v>0.115821087466388</v>
       </c>
       <c r="K4" t="n">
-        <v>0.058352512190181</v>
+        <v>0.0612204189923332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0516680166571416</v>
+        <v>0.0515896604726919</v>
       </c>
       <c r="M4" t="n">
-        <v>0.11496867295714</v>
+        <v>0.116456157080604</v>
       </c>
     </row>
     <row r="5">
@@ -632,40 +632,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0932294855086049</v>
+        <v>0.0969316582578976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0918378018291469</v>
+        <v>0.0917058147535666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0983621789594571</v>
+        <v>0.0982342729163994</v>
       </c>
       <c r="E5" t="n">
-        <v>0.128972183901413</v>
+        <v>0.128835429773558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.052217230565829</v>
+        <v>0.0521465714773465</v>
       </c>
       <c r="G5" t="n">
-        <v>0.114297886560459</v>
+        <v>0.114100235889649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0729564800276328</v>
+        <v>0.0728035233938244</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0709886380284247</v>
+        <v>0.0708964417657947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.122372587777753</v>
+        <v>0.122033282772316</v>
       </c>
       <c r="K5" t="n">
-        <v>0.150484018727778</v>
+        <v>0.158217719414567</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0807607818857155</v>
+        <v>0.0806383056009429</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0763595325583267</v>
+        <v>0.080078406585787</v>
       </c>
     </row>
     <row r="6">
@@ -673,40 +673,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.072433196337855</v>
+        <v>0.0770442618501699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0897430512402594</v>
+        <v>0.0741837282467851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0815300483553539</v>
+        <v>0.096754314314017</v>
       </c>
       <c r="E6" t="n">
-        <v>0.108999927307447</v>
+        <v>0.065279542286619</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0859696735401653</v>
+        <v>0.0668423458089525</v>
       </c>
       <c r="G6" t="n">
-        <v>0.097729749508078</v>
+        <v>0.0373194624905802</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0737373460322634</v>
+        <v>0.0512955703251055</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0800897030643499</v>
+        <v>0.110788774616843</v>
       </c>
       <c r="J6" t="n">
-        <v>0.118689407285363</v>
+        <v>0.053575997649311</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0707751809688699</v>
+        <v>0.157546882381595</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0411491335889016</v>
+        <v>0.00259190550988809</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0390959751910479</v>
+        <v>0.055025435693606</v>
       </c>
     </row>
     <row r="7">
@@ -714,40 +714,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0715444499861098</v>
+        <v>0.0657394187080174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0742247482511581</v>
+        <v>0.0896140746897439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0968802933753493</v>
+        <v>0.0814240301074282</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0653488341490191</v>
+        <v>0.108884350525352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0669329178080904</v>
+        <v>0.0858533414654142</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0373841093051816</v>
+        <v>0.0975607494405382</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0514033398038403</v>
+        <v>0.0735827522767699</v>
       </c>
       <c r="I7" t="n">
-        <v>0.110932848292568</v>
+        <v>0.079985686823121</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0509445319215343</v>
+        <v>0.118360314710665</v>
       </c>
       <c r="K7" t="n">
-        <v>0.160236623877362</v>
+        <v>0.0680417079271537</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00259584218681808</v>
+        <v>0.0410867296239337</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0427086483595602</v>
+        <v>0.0397567212002871</v>
       </c>
     </row>
     <row r="8">
@@ -755,40 +755,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0610075318045988</v>
+        <v>0.063656512710223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0682625497106202</v>
+        <v>0.0681644444192423</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11476818594713</v>
+        <v>0.11461894622218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0393363139888575</v>
+        <v>0.0392946041941575</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0848555762131242</v>
+        <v>0.0847407517078239</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0227930323951762</v>
+        <v>0.0227536173344233</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0633951364910317</v>
+        <v>0.0632622256560543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0778012495096747</v>
+        <v>0.0777002053900528</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0350708572062188</v>
+        <v>0.0349736155149942</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0177302736228577</v>
+        <v>0.0211156525469709</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0392402832550644</v>
+        <v>0.0391807741221128</v>
       </c>
       <c r="M8" t="n">
-        <v>0.065220313719315</v>
+        <v>0.0775129094485827</v>
       </c>
     </row>
     <row r="9">
@@ -796,40 +796,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0606381063267319</v>
+        <v>0.0536679758500399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0847187754510992</v>
+        <v>0.0845970196686673</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0514829203403444</v>
+        <v>0.0514159741147174</v>
       </c>
       <c r="E9" t="n">
-        <v>0.113468714902909</v>
+        <v>0.113348399694809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.122399066294443</v>
+        <v>0.122233438849982</v>
       </c>
       <c r="G9" t="n">
-        <v>0.116752665308591</v>
+        <v>0.116550769689069</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0547975117455974</v>
+        <v>0.0546826262284438</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0478921388154982</v>
+        <v>0.0478299390560609</v>
       </c>
       <c r="J9" t="n">
-        <v>0.100305476507664</v>
+        <v>0.100027357438109</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0149209786920427</v>
+        <v>0.0235778503159715</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0588883645207161</v>
+        <v>0.0587990584499423</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0243221311329973</v>
+        <v>0.0298224757319361</v>
       </c>
     </row>
     <row r="10">
@@ -837,40 +837,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0473249104815912</v>
+        <v>0.050338229410814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0480314017698516</v>
+        <v>0.0479623721967416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0513258945872917</v>
+        <v>0.0512591525513537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0257853652953644</v>
+        <v>0.0257580240886352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0585395107540181</v>
+        <v>0.0584602965095002</v>
       </c>
       <c r="G10" t="n">
-        <v>0.046207997690817</v>
+        <v>0.0461280920861272</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0425554224405343</v>
+        <v>0.04246620302967</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0707934688656888</v>
+        <v>0.0707015260783738</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0315922988317157</v>
+        <v>0.0315047022112508</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0521321802651446</v>
+        <v>0.0460990859058983</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0760092820323943</v>
+        <v>0.0758940115477086</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0390763141446832</v>
+        <v>0.05246917760636</v>
       </c>
     </row>
     <row r="11">
@@ -878,40 +878,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0440703328458708</v>
+        <v>0.0498109257465936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0556835908767662</v>
+        <v>0.0228860341453201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0396349712847709</v>
+        <v>0.0202783855397836</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0821377590537621</v>
+        <v>0.0378441824983158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0287056885989428</v>
+        <v>0.0189089781764866</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0354198209688927</v>
+        <v>0.0130265735791502</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0340088165155789</v>
+        <v>0.00949857755645115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0909184296970719</v>
+        <v>0.0268361588694057</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0532106449141004</v>
+        <v>0.0140747856649723</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0158215408500238</v>
+        <v>0.0294334431899248</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00632678822322605</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0355544106849215</v>
+        <v>0.0930111303806894</v>
       </c>
     </row>
     <row r="12">
@@ -919,40 +919,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0438713209812911</v>
+        <v>0.0404582691694519</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0229189727406162</v>
+        <v>0.0556035637618826</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0203047890339714</v>
+        <v>0.0395834316340904</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0378843527230824</v>
+        <v>0.0820506652536612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0189346000174674</v>
+        <v>0.0286668447581515</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0130491389225625</v>
+        <v>0.03535857091795</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00951853360227524</v>
+        <v>0.0339375154592223</v>
       </c>
       <c r="I12" t="n">
-        <v>0.026871057567979</v>
+        <v>0.0908003496823673</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0141139196218575</v>
+        <v>0.0530631066582724</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0333209351965288</v>
+        <v>0.0146421254653678</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.00631719344841046</v>
       </c>
       <c r="M12" t="n">
-        <v>0.102941226332114</v>
+        <v>0.0364076021465309</v>
       </c>
     </row>
     <row r="13">
@@ -960,40 +960,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0413945679478235</v>
+        <v>0.0393191393951588</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0527612876240678</v>
+        <v>0.030305657923262</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0378478605827785</v>
+        <v>0.0305230536976451</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0640960220201268</v>
+        <v>0.0264037649181616</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0754831299559596</v>
+        <v>0.0340469899132181</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0221724636293523</v>
+        <v>0.0126523529598856</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0489547657952483</v>
+        <v>0.0254456610006268</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0515957186258728</v>
+        <v>0.0442436334541801</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0629643291809819</v>
+        <v>0.0397679153640702</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00995748759022352</v>
+        <v>0.0275345902989024</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0401051644319554</v>
+        <v>0.023992666440179</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0284913632790919</v>
+        <v>0.0556262300912106</v>
       </c>
     </row>
     <row r="14">
@@ -1001,40 +1001,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0389666735972933</v>
+        <v>0.0384817653704697</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0460228362443624</v>
+        <v>0.0395786342861084</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0528611468776913</v>
+        <v>0.0487818237819246</v>
       </c>
       <c r="E14" t="n">
-        <v>0.048095279732958</v>
+        <v>0.0298958161894907</v>
       </c>
       <c r="F14" t="n">
-        <v>0.051046397560614</v>
+        <v>0.0630974759167366</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0498480559610093</v>
+        <v>0.0293355182338079</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0380105738124306</v>
+        <v>0.0481605881926132</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0364497278863142</v>
+        <v>0.0238985508153591</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0392455795985156</v>
+        <v>0.0157653922360211</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0160678239474841</v>
+        <v>0.0158549803964411</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0541528634172794</v>
+        <v>0.131465249768177</v>
       </c>
       <c r="M14" t="n">
-        <v>0.029048691788262</v>
+        <v>0.0379674769668022</v>
       </c>
     </row>
     <row r="15">
@@ -1042,40 +1042,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.038653527602944</v>
+        <v>0.0376186611037422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0396355976118138</v>
+        <v>0.0526854603729941</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0488453402092147</v>
+        <v>0.0377986448157372</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0299275495122006</v>
+        <v>0.0640280585622313</v>
       </c>
       <c r="F15" t="n">
-        <v>0.063182973582403</v>
+        <v>0.0753809880173562</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0293863348233816</v>
+        <v>0.0221341216928412</v>
       </c>
       <c r="H15" t="n">
-        <v>0.048261771227565</v>
+        <v>0.048852129865142</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0239296293435979</v>
+        <v>0.0515287088542089</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0158092268062042</v>
+        <v>0.0627897466830298</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0131676068923577</v>
+        <v>0.0115666034348671</v>
       </c>
       <c r="L15" t="n">
-        <v>0.131664923797143</v>
+        <v>0.040044343679294</v>
       </c>
       <c r="M15" t="n">
-        <v>0.030113635988895</v>
+        <v>0.0305189902947595</v>
       </c>
     </row>
     <row r="16">
@@ -1083,40 +1083,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036318313733475</v>
+        <v>0.0340753880617943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0303492751701462</v>
+        <v>0.045956693333221</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0305627962732717</v>
+        <v>0.0527924084642062</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0264317915553203</v>
+        <v>0.0480442824726588</v>
       </c>
       <c r="F16" t="n">
-        <v>0.034093123900644</v>
+        <v>0.0509773228149244</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0126742700578683</v>
+        <v>0.0497618557521011</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0254991210870382</v>
+        <v>0.0379308828868642</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0443011694538446</v>
+        <v>0.0364023889208356</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0398784872706214</v>
+        <v>0.0391367625681587</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0281040310229985</v>
+        <v>0.0161235092058004</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0240291073428676</v>
+        <v>0.0540707388839813</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0550443378159004</v>
+        <v>0.025852518273185</v>
       </c>
     </row>
     <row r="17">
@@ -1124,40 +1124,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0323250644293763</v>
+        <v>0.033983311264489</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0332771655305157</v>
+        <v>0.0203676587699959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0288447172197366</v>
+        <v>0.0124207866266543</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0695657997417108</v>
+        <v>0.0152387043965429</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0133416408178441</v>
+        <v>0.0239926016992109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0134564935505487</v>
+        <v>0.0136566029084506</v>
       </c>
       <c r="H17" t="n">
-        <v>0.026229722760271</v>
+        <v>0.0167221669837983</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0271151403596097</v>
+        <v>0.035368659112366</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0280780210661461</v>
+        <v>0.0412977701014443</v>
       </c>
       <c r="K17" t="n">
-        <v>0.071711581519768</v>
+        <v>0.0270356545304605</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0112898831610919</v>
+        <v>0.0373011443462327</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0179785869922492</v>
+        <v>0.0519808706228486</v>
       </c>
     </row>
     <row r="18">
@@ -1165,40 +1165,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0316619023583936</v>
+        <v>0.0319896715316306</v>
       </c>
       <c r="C18" t="n">
-        <v>0.020167126115703</v>
+        <v>0.0332293403901651</v>
       </c>
       <c r="D18" t="n">
-        <v>0.012436959125538</v>
+        <v>0.0288072087618951</v>
       </c>
       <c r="E18" t="n">
-        <v>0.015254879727607</v>
+        <v>0.0694920364697837</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0240251118972616</v>
+        <v>0.0133235872334461</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0136802596231349</v>
+        <v>0.0134332237854021</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0167572994369076</v>
+        <v>0.0261747309336695</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0341142180962793</v>
+        <v>0.027079924659305</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0414125956620657</v>
+        <v>0.0280001685563355</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0278375740358052</v>
+        <v>0.0696543838007148</v>
       </c>
       <c r="L18" t="n">
-        <v>0.037357798631603</v>
+        <v>0.0112727616955389</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0577809170495888</v>
+        <v>0.017497451803769</v>
       </c>
     </row>
     <row r="19">
@@ -1206,40 +1206,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0299395379640607</v>
+        <v>0.0303637071569595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0307080033339235</v>
+        <v>0.030729524546631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0239433045098027</v>
+        <v>0.0239121696430279</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0159204887615089</v>
+        <v>0.0159036076597881</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0209681437129943</v>
+        <v>0.0209397701300625</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0281447893994951</v>
+        <v>0.0280961197637562</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0653390788490106</v>
+        <v>0.0652020924489938</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0421129108189791</v>
+        <v>0.0420582168130957</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0253025873266461</v>
+        <v>0.0280051510046106</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00600177916881286</v>
+        <v>0.00397896940900136</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0344377143298887</v>
+        <v>0.0343854884448898</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0374342235485173</v>
+        <v>0.0400342363817832</v>
       </c>
     </row>
     <row r="20">
@@ -1247,40 +1247,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0270711259919894</v>
+        <v>0.0275500749137993</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0310465966023829</v>
+        <v>0.0312222211204811</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0254065753213864</v>
+        <v>0.025373537678754</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0174198071731154</v>
+        <v>0.0174013362868724</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0473346575981105</v>
+        <v>0.0486237812071863</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0164898986204219</v>
+        <v>0.0164613833116791</v>
       </c>
       <c r="H20" t="n">
-        <v>0.017704736977718</v>
+        <v>0.0176676181779959</v>
       </c>
       <c r="I20" t="n">
-        <v>0.057995023038915</v>
+        <v>0.0579197021914691</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0269991451826757</v>
+        <v>0.0269242840943441</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0128543543549344</v>
+        <v>0.00999321893879987</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0218472473238587</v>
+        <v>0.0218141152810248</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0245978902847182</v>
+        <v>0.0308150000122391</v>
       </c>
     </row>
     <row r="21">
@@ -1288,40 +1288,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>0.023746245554371</v>
+        <v>0.0229731441459972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.019454285576107</v>
+        <v>0.0279188342765334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.023277143708419</v>
+        <v>0.0209063352371739</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0207336999054023</v>
+        <v>0.0197899390870376</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0175328661238039</v>
+        <v>0.0143904099561307</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0187877053768524</v>
+        <v>0.0169639958033016</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0178566210555686</v>
+        <v>0.0817012395359492</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0173152017198904</v>
+        <v>0.026565776370868</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0194274400460883</v>
+        <v>0.0131440702493853</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00536727269964157</v>
+        <v>0.0193962642798228</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0460861309434834</v>
+        <v>0.00525290947305643</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0366365520055472</v>
+        <v>0.0203101758087356</v>
       </c>
     </row>
     <row r="22">
@@ -1329,40 +1329,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0232845404949315</v>
+        <v>0.0227134281883435</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0277190418004305</v>
+        <v>0.0194263263457078</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0209335563539556</v>
+        <v>0.0232468750891497</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0187494817203833</v>
+        <v>0.0207117151722453</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0144099090952224</v>
+        <v>0.0175091410750917</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0169933817648993</v>
+        <v>0.0187552165646577</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0818728898352045</v>
+        <v>0.0178191838238543</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0266003234543923</v>
+        <v>0.0172927136580034</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0131806164171693</v>
+        <v>0.0193735731812114</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0146937576608452</v>
+        <v>0.00309830818752131</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00526088777606903</v>
+        <v>0.0475327715522933</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0197410863201918</v>
+        <v>0.0320356338606968</v>
       </c>
     </row>
     <row r="23">
@@ -1370,40 +1370,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0225570852665277</v>
+        <v>0.022198864349529</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0242247062909054</v>
+        <v>0.0241898911268178</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0127877887089121</v>
+        <v>0.0127711600059846</v>
       </c>
       <c r="E23" t="n">
-        <v>0.038101941816959</v>
+        <v>0.0380615408741735</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0173965795919296</v>
+        <v>0.017373038962843</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0102241499270583</v>
+        <v>0.01020646972183</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0388779572908386</v>
+        <v>0.0387964478557028</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0198134289823329</v>
+        <v>0.0197876963559184</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0378033562142717</v>
+        <v>0.0376985380665251</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0155109272498332</v>
+        <v>0.0202696341950502</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0514429547160629</v>
+        <v>0.0513649398451783</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0161626898189773</v>
+        <v>0.0181120815363897</v>
       </c>
     </row>
     <row r="24">
@@ -1411,40 +1411,40 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0216536003001745</v>
+        <v>0.0201838463732084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0248207347219647</v>
+        <v>0.0250159289856145</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0163511671350575</v>
+        <v>0.0176302627315667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0485662219745389</v>
+        <v>0.0485147253562109</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0112276432244119</v>
+        <v>0.011212450250226</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0358078413818051</v>
+        <v>0.0357459203429972</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0191124040881251</v>
+        <v>0.019072334049217</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0157885681956608</v>
+        <v>0.0157680628440954</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00599281533977228</v>
+        <v>0.0059761989367169</v>
       </c>
       <c r="K24" t="n">
-        <v>0.011539037887782</v>
+        <v>0.0152337691606852</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0128482567735397</v>
+        <v>0.0128287719850237</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0197595653702909</v>
+        <v>0.0172779528086668</v>
       </c>
     </row>
     <row r="25">
@@ -1452,40 +1452,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0134410842070921</v>
+        <v>0.0120171698028742</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0166129673627565</v>
+        <v>0.0165890916064203</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00990324370778222</v>
+        <v>0.00989036594592803</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0100257576458049</v>
+        <v>0.0100151269524146</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0310965348388076</v>
+        <v>0.0310544557629381</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0187937296808294</v>
+        <v>0.0187612304510516</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0227853914465942</v>
+        <v>0.0227376208198541</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0130893432948986</v>
+        <v>0.0130723435528894</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0131440337020383</v>
+        <v>0.0131075889679052</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00511429124769571</v>
+        <v>0.00252396374348413</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00992595285253889</v>
+        <v>0.00991089983051729</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0101423291658875</v>
+        <v>0.0107425523139083</v>
       </c>
     </row>
     <row r="26">
@@ -1493,40 +1493,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00912296727788547</v>
+        <v>0.009010535423427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0090905907641623</v>
+        <v>0.00907752598619112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00861603556073884</v>
+        <v>0.0086048316302538</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0147080327277219</v>
+        <v>0.0146924372393981</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00654357988851507</v>
+        <v>0.00653472527509869</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00536247626473339</v>
+        <v>0.00535320315336779</v>
       </c>
       <c r="H26" t="n">
-        <v>0.011106023696502</v>
+        <v>0.0110827394042915</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00464674298425364</v>
+        <v>0.00464070804192415</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0148563509789483</v>
+        <v>0.0148151584672819</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00114312378109044</v>
+        <v>0.00104812185219041</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00779960431154217</v>
+        <v>0.00778777596445997</v>
       </c>
       <c r="M26" t="n">
-        <v>0.012504935511294</v>
+        <v>0.0121938090949043</v>
       </c>
     </row>
     <row r="27">
@@ -1534,40 +1534,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00903084455774402</v>
+        <v>0.00812296359793623</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00350747267813929</v>
+        <v>0.00350243182293321</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00240140039481314</v>
+        <v>0.00239827771467788</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00301388411452899</v>
+        <v>0.0030106883781999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0026974301047993</v>
+        <v>0.00269378000787947</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0092221941939587</v>
+        <v>0.00920285943740658</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00406859162073066</v>
+        <v>0.00406330755060314</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00175842094182187</v>
+        <v>0.00175354533170313</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00375924498514015</v>
+        <v>0.00244349580682892</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0427657775628182</v>
+        <v>0.0427009219060377</v>
       </c>
       <c r="M27" t="n">
-        <v>0.017558389011036</v>
+        <v>0.0125886412154348</v>
       </c>
     </row>
     <row r="28">
@@ -1575,40 +1575,40 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00548439090212051</v>
+        <v>0.0058120316135305</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00738544044333992</v>
+        <v>0.00737482626631724</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00842704851418689</v>
+        <v>0.00841609033451349</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0106175169548618</v>
+        <v>0.0106062587964961</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00535221128258067</v>
+        <v>0.00534496880023346</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0110870113292001</v>
+        <v>0.0110678390129619</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0031425168348546</v>
+        <v>0.00313592840300368</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00471247697531813</v>
+        <v>0.00470635666118166</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00984903169908945</v>
+        <v>0.00982172308516785</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.00161410398703662</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00111540434016411</v>
+        <v>0.00111371279413876</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00421941073126723</v>
+        <v>0.00610514612647652</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_manual_positive.xlsx
@@ -650,7 +650,7 @@
         <v>0.114100235889649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0728035233938244</v>
+        <v>0.0728035233938245</v>
       </c>
       <c r="I5" t="n">
         <v>0.0708964417657947</v>
@@ -706,7 +706,7 @@
         <v>0.00259190550988809</v>
       </c>
       <c r="M6" t="n">
-        <v>0.055025435693606</v>
+        <v>0.0550254356936061</v>
       </c>
     </row>
     <row r="7">
@@ -726,7 +726,7 @@
         <v>0.108884350525352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0858533414654142</v>
+        <v>0.0858533414654141</v>
       </c>
       <c r="G7" t="n">
         <v>0.0975607494405382</v>
@@ -735,10 +735,10 @@
         <v>0.0735827522767699</v>
       </c>
       <c r="I7" t="n">
-        <v>0.079985686823121</v>
+        <v>0.0799856868231209</v>
       </c>
       <c r="J7" t="n">
-        <v>0.118360314710665</v>
+        <v>0.118360314710664</v>
       </c>
       <c r="K7" t="n">
         <v>0.0680417079271537</v>
@@ -773,7 +773,7 @@
         <v>0.0227536173344233</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0632622256560543</v>
+        <v>0.0632622256560542</v>
       </c>
       <c r="I8" t="n">
         <v>0.0777002053900528</v>
@@ -858,7 +858,7 @@
         <v>0.04246620302967</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0707015260783738</v>
+        <v>0.0707015260783737</v>
       </c>
       <c r="J10" t="n">
         <v>0.0315047022112508</v>
@@ -1004,7 +1004,7 @@
         <v>0.0384817653704697</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0395786342861084</v>
+        <v>0.0395786342861085</v>
       </c>
       <c r="D14" t="n">
         <v>0.0487818237819246</v>
@@ -1013,7 +1013,7 @@
         <v>0.0298958161894907</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0630974759167366</v>
+        <v>0.0630974759167365</v>
       </c>
       <c r="G14" t="n">
         <v>0.0293355182338079</v>
@@ -1072,7 +1072,7 @@
         <v>0.0115666034348671</v>
       </c>
       <c r="L15" t="n">
-        <v>0.040044343679294</v>
+        <v>0.0400443436792939</v>
       </c>
       <c r="M15" t="n">
         <v>0.0305189902947595</v>
@@ -1288,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0229731441459972</v>
+        <v>0.0229731441459971</v>
       </c>
       <c r="C21" t="n">
         <v>0.0279188342765334</v>
@@ -1359,7 +1359,7 @@
         <v>0.00309830818752131</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0475327715522933</v>
+        <v>0.0475327715522932</v>
       </c>
       <c r="M22" t="n">
         <v>0.0320356338606968</v>
@@ -1376,7 +1376,7 @@
         <v>0.0241898911268178</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0127711600059846</v>
+        <v>0.0127711600059847</v>
       </c>
       <c r="E23" t="n">
         <v>0.0380615408741735</v>
@@ -1593,7 +1593,7 @@
         <v>0.0110678390129619</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00313592840300368</v>
+        <v>0.00313592840300367</v>
       </c>
       <c r="I28" t="n">
         <v>0.00470635666118166</v>

--- a/xlsx/country_comparison/field_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_manual_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -74,58 +77,58 @@
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
-    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social division; fake news; (social) media</t>
   </si>
   <si>
     <t xml:space="preserve">Religion; sin; God</t>
@@ -503,13 +506,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.185614433213153</v>
+        <v>0.187645998665555</v>
       </c>
       <c r="C2" t="n">
         <v>0.155049049537846</v>
@@ -536,21 +542,24 @@
         <v>0.123791350246348</v>
       </c>
       <c r="K2" t="n">
-        <v>0.148804381811793</v>
+        <v>0.148747885214624</v>
       </c>
       <c r="L2" t="n">
+        <v>0.199350535223962</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.217293772928453</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.232271595236453</v>
+      <c r="N2" t="n">
+        <v>0.232440576661756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.127501586554575</v>
+        <v>0.130811003218063</v>
       </c>
       <c r="C3" t="n">
         <v>0.104719010515957</v>
@@ -577,21 +586,24 @@
         <v>0.132409655325916</v>
       </c>
       <c r="K3" t="n">
-        <v>0.180269608160368</v>
+        <v>0.180220505762538</v>
       </c>
       <c r="L3" t="n">
+        <v>0.151274616031518</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.179753923423249</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.128000592267428</v>
+      <c r="N3" t="n">
+        <v>0.127964397751941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1148158587056</v>
+        <v>0.116425729604769</v>
       </c>
       <c r="C4" t="n">
         <v>0.136860857005065</v>
@@ -618,21 +630,24 @@
         <v>0.115821087466388</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0612204189923332</v>
+        <v>0.06127765344218</v>
       </c>
       <c r="L4" t="n">
+        <v>0.12635990566512</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0515896604726919</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.116456157080604</v>
+      <c r="N4" t="n">
+        <v>0.116409687134308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0969316582578976</v>
+        <v>0.0982080308046094</v>
       </c>
       <c r="C5" t="n">
         <v>0.0917058147535666</v>
@@ -650,7 +665,7 @@
         <v>0.114100235889649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0728035233938245</v>
+        <v>0.0728035233938244</v>
       </c>
       <c r="I5" t="n">
         <v>0.0708964417657947</v>
@@ -659,21 +674,24 @@
         <v>0.122033282772316</v>
       </c>
       <c r="K5" t="n">
-        <v>0.158217719414567</v>
+        <v>0.158186878939349</v>
       </c>
       <c r="L5" t="n">
+        <v>0.106260428185545</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.0806383056009429</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.080078406585787</v>
+      <c r="N5" t="n">
+        <v>0.0800688560841534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0770442618501699</v>
+        <v>0.071318996469291</v>
       </c>
       <c r="C6" t="n">
         <v>0.0741837282467851</v>
@@ -700,21 +718,24 @@
         <v>0.053575997649311</v>
       </c>
       <c r="K6" t="n">
-        <v>0.157546882381595</v>
+        <v>0.157593492998312</v>
       </c>
       <c r="L6" t="n">
+        <v>0.0363441561880306</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.00259190550988809</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.0550254356936061</v>
+      <c r="N6" t="n">
+        <v>0.0550054465060041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0657394187080174</v>
+        <v>0.0636072212795829</v>
       </c>
       <c r="C7" t="n">
         <v>0.0896140746897439</v>
@@ -726,7 +747,7 @@
         <v>0.108884350525352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0858533414654141</v>
+        <v>0.0858533414654142</v>
       </c>
       <c r="G7" t="n">
         <v>0.0975607494405382</v>
@@ -735,27 +756,30 @@
         <v>0.0735827522767699</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0799856868231209</v>
+        <v>0.079985686823121</v>
       </c>
       <c r="J7" t="n">
-        <v>0.118360314710664</v>
+        <v>0.118360314710665</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0680417079271537</v>
+        <v>0.0680631208811205</v>
       </c>
       <c r="L7" t="n">
+        <v>0.0505581227709324</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.0410867296239337</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.0397567212002871</v>
+      <c r="N7" t="n">
+        <v>0.0398286701676055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.063656512710223</v>
+        <v>0.0567102100089364</v>
       </c>
       <c r="C8" t="n">
         <v>0.0681644444192423</v>
@@ -782,103 +806,112 @@
         <v>0.0349736155149942</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0211156525469709</v>
+        <v>0.0211297482500614</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0391807741221128</v>
+        <v>0.0137710151276838</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0775129094485827</v>
+        <v>0.0391807741221129</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0775590701548773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0536679758500399</v>
+        <v>0.0522287419328314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0845970196686673</v>
+        <v>0.0479623721967416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0514159741147174</v>
+        <v>0.0512591525513537</v>
       </c>
       <c r="E9" t="n">
-        <v>0.113348399694809</v>
+        <v>0.0257580240886352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.122233438849982</v>
+        <v>0.0584602965095002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.116550769689069</v>
+        <v>0.0461280920861272</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0546826262284438</v>
+        <v>0.04246620302967</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0478299390560609</v>
+        <v>0.0707015260783738</v>
       </c>
       <c r="J9" t="n">
-        <v>0.100027357438109</v>
+        <v>0.0315047022112508</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0235778503159715</v>
+        <v>0.0461159873455455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0587990584499423</v>
+        <v>0.0639074611084843</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0298224757319361</v>
+        <v>0.0758940115477086</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.052428186427557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.050338229410814</v>
+        <v>0.0505645756823941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0479623721967416</v>
+        <v>0.0845970196686673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0512591525513537</v>
+        <v>0.0514159741147174</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0257580240886352</v>
+        <v>0.113348399694809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0584602965095002</v>
+        <v>0.122233438849982</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0461280920861272</v>
+        <v>0.116550769689069</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04246620302967</v>
+        <v>0.0546826262284438</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0707015260783737</v>
+        <v>0.0478299390560609</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0315047022112508</v>
+        <v>0.100027357438109</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0460990859058983</v>
+        <v>0.0235979065427813</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0758940115477086</v>
+        <v>0.0315913772563159</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05246917760636</v>
+        <v>0.0587990584499423</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0298675221923799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0498109257465936</v>
+        <v>0.0428745196259142</v>
       </c>
       <c r="C11" t="n">
         <v>0.0228860341453201</v>
@@ -905,349 +938,376 @@
         <v>0.0140747856649723</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0294334431899248</v>
+        <v>0.0294419253932201</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0930111303806894</v>
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0929409531396876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0404582691694519</v>
+        <v>0.0383870840024993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0556035637618826</v>
+        <v>0.0395786342861084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0395834316340904</v>
+        <v>0.0487818237819246</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0820506652536612</v>
+        <v>0.0298958161894907</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0286668447581515</v>
+        <v>0.0630974759167365</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03535857091795</v>
+        <v>0.0293355182338079</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0339375154592223</v>
+        <v>0.0481605881926132</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0908003496823673</v>
+        <v>0.0238985508153591</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0530631066582724</v>
+        <v>0.0157653922360211</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0146421254653678</v>
+        <v>0.0158560033478798</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00631719344841046</v>
+        <v>0.0376853014735801</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0364076021465309</v>
+        <v>0.131465249768177</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0380202312847094</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0393191393951588</v>
+        <v>0.0356634853072634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.030305657923262</v>
+        <v>0.0556035637618826</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0305230536976451</v>
+        <v>0.0395834316340904</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0264037649181616</v>
+        <v>0.0820506652536612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0340469899132181</v>
+        <v>0.0286668447581515</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0126523529598856</v>
+        <v>0.03535857091795</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0254456610006268</v>
+        <v>0.0339375154592223</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0442436334541801</v>
+        <v>0.0908003496823673</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0397679153640702</v>
+        <v>0.0530631066582724</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0275345902989024</v>
+        <v>0.01465642245411</v>
       </c>
       <c r="L13" t="n">
-        <v>0.023992666440179</v>
+        <v>0.0062494776605865</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0556262300912106</v>
+        <v>0.00631719344841046</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0363958546426497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0384817653704697</v>
+        <v>0.0355885787538156</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0395786342861085</v>
+        <v>0.030729524546631</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0487818237819246</v>
+        <v>0.0239121696430279</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0298958161894907</v>
+        <v>0.0159036076597881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0630974759167365</v>
+        <v>0.0209397701300625</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0293355182338079</v>
+        <v>0.0280961197637562</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0481605881926132</v>
+        <v>0.0652020924489938</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0238985508153591</v>
+        <v>0.0420582168130957</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0157653922360211</v>
+        <v>0.0280051510046106</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0158549803964411</v>
+        <v>0.00397780728331008</v>
       </c>
       <c r="L14" t="n">
-        <v>0.131465249768177</v>
+        <v>0.0673804808734916</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0379674769668022</v>
+        <v>0.0343854884448898</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0401314395471669</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0376186611037422</v>
+        <v>0.0342421099605133</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0526854603729941</v>
+        <v>0.030305657923262</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0377986448157372</v>
+        <v>0.0305230536976451</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0640280585622313</v>
+        <v>0.0264037649181616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0753809880173562</v>
+        <v>0.0340469899132181</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0221341216928412</v>
+        <v>0.0126523529598856</v>
       </c>
       <c r="H15" t="n">
-        <v>0.048852129865142</v>
+        <v>0.0254456610006268</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0515287088542089</v>
+        <v>0.0442436334541801</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0627897466830298</v>
+        <v>0.0397679153640702</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0115666034348671</v>
+        <v>0.0275193643035382</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0400443436792939</v>
+        <v>0.00312603369190846</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0305189902947595</v>
+        <v>0.023992666440179</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0555311794903266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0340753880617943</v>
+        <v>0.0339160339911325</v>
       </c>
       <c r="C16" t="n">
-        <v>0.045956693333221</v>
+        <v>0.0332293403901651</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0527924084642062</v>
+        <v>0.0288072087618951</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0480442824726588</v>
+        <v>0.0694920364697837</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0509773228149244</v>
+        <v>0.0133235872334461</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0497618557521011</v>
+        <v>0.0134332237854021</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0379308828868642</v>
+        <v>0.0261747309336695</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0364023889208356</v>
+        <v>0.027079924659305</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0391367625681587</v>
+        <v>0.0280001685563355</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0161235092058004</v>
+        <v>0.0696866711921813</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0540707388839813</v>
+        <v>0.0458939677108768</v>
       </c>
       <c r="M16" t="n">
-        <v>0.025852518273185</v>
+        <v>0.0112727616955389</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0174829965973913</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.033983311264489</v>
+        <v>0.0336508441344007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0203676587699959</v>
+        <v>0.0526854603729941</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0124207866266543</v>
+        <v>0.0377986448157372</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0152387043965429</v>
+        <v>0.0640280585622313</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0239926016992109</v>
+        <v>0.0753809880173563</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0136566029084506</v>
+        <v>0.0221341216928412</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0167221669837983</v>
+        <v>0.048852129865142</v>
       </c>
       <c r="I17" t="n">
-        <v>0.035368659112366</v>
+        <v>0.0515287088542089</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0412977701014443</v>
+        <v>0.0627897466830298</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0270356545304605</v>
+        <v>0.0115703871752612</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0373011443462327</v>
+        <v>0.00923907644804896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0519808706228486</v>
+        <v>0.040044343679294</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0305575712718746</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0319896715316306</v>
+        <v>0.0307919246649967</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0332293403901651</v>
+        <v>0.0203676587699959</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0288072087618951</v>
+        <v>0.0124207866266543</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0694920364697837</v>
+        <v>0.0152387043965429</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0133235872334461</v>
+        <v>0.0239926016992109</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0134332237854021</v>
+        <v>0.0136566029084506</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0261747309336695</v>
+        <v>0.0167221669837983</v>
       </c>
       <c r="I18" t="n">
-        <v>0.027079924659305</v>
+        <v>0.035368659112366</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0280001685563355</v>
+        <v>0.0412977701014443</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0696543838007148</v>
+        <v>0.0270497555948125</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0112727616955389</v>
+        <v>0.0109842920164606</v>
       </c>
       <c r="M18" t="n">
-        <v>0.017497451803769</v>
+        <v>0.0373011443462327</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0519867373148021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0303637071569595</v>
+        <v>0.0304715950453333</v>
       </c>
       <c r="C19" t="n">
-        <v>0.030729524546631</v>
+        <v>0.045956693333221</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0239121696430279</v>
+        <v>0.0527924084642062</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0159036076597881</v>
+        <v>0.0480442824726588</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0209397701300625</v>
+        <v>0.0509773228149244</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0280961197637562</v>
+        <v>0.0497618557521011</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0652020924489938</v>
+        <v>0.0379308828868642</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0420582168130957</v>
+        <v>0.0364023889208356</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0280051510046106</v>
+        <v>0.0391367625681587</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00397896940900136</v>
+        <v>0.0161344633873434</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0343854884448898</v>
+        <v>0.00834048767126055</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0400342363817832</v>
+        <v>0.0540707388839813</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0258741821109691</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0275500749137993</v>
+        <v>0.0283132997309832</v>
       </c>
       <c r="C20" t="n">
         <v>0.0312222211204811</v>
@@ -1274,62 +1334,68 @@
         <v>0.0269242840943441</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00999321893879987</v>
+        <v>0.00997916848674211</v>
       </c>
       <c r="L20" t="n">
+        <v>0.0329667120531365</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.0218141152810248</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.0308150000122391</v>
+      <c r="N20" t="n">
+        <v>0.0308232855419842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0229731441459971</v>
+        <v>0.0226129960672542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0279188342765334</v>
+        <v>0.0241898911268178</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0209063352371739</v>
+        <v>0.0127711600059846</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0197899390870376</v>
+        <v>0.0380615408741735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0143904099561307</v>
+        <v>0.017373038962843</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0169639958033016</v>
+        <v>0.01020646972183</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0817012395359492</v>
+        <v>0.0387964478557028</v>
       </c>
       <c r="I21" t="n">
-        <v>0.026565776370868</v>
+        <v>0.0197876963559184</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0131440702493853</v>
+        <v>0.0376985380665251</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0193962642798228</v>
+        <v>0.0202799742717933</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00525290947305643</v>
+        <v>0.0251584912876818</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0203101758087356</v>
+        <v>0.0513649398451783</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0181240909764621</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0227134281883435</v>
+        <v>0.0217712449080202</v>
       </c>
       <c r="C22" t="n">
         <v>0.0194263263457078</v>
@@ -1356,62 +1422,68 @@
         <v>0.0193735731812114</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00309830818752131</v>
+        <v>0.0030966887031191</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0475327715522932</v>
+        <v>0.0156890738334105</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0320356338606968</v>
+        <v>0.0475327715522933</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0321235826696896</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.022198864349529</v>
+        <v>0.0210186463970641</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0241898911268178</v>
+        <v>0.0279188342765334</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0127711600059847</v>
+        <v>0.0209063352371739</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0380615408741735</v>
+        <v>0.0197899390870376</v>
       </c>
       <c r="F23" t="n">
-        <v>0.017373038962843</v>
+        <v>0.0143904099561307</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01020646972183</v>
+        <v>0.0169639958033016</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0387964478557028</v>
+        <v>0.0817012395359492</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0197876963559184</v>
+        <v>0.026565776370868</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0376985380665251</v>
+        <v>0.0131440702493853</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0202696341950502</v>
+        <v>0.0193850497422898</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0513649398451783</v>
+        <v>0.00903014934085977</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0181120815363897</v>
+        <v>0.00525290947305643</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.020315482885716</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0201838463732084</v>
+        <v>0.0203766474867591</v>
       </c>
       <c r="C24" t="n">
         <v>0.0250159289856145</v>
@@ -1438,103 +1510,112 @@
         <v>0.0059761989367169</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0152337691606852</v>
+        <v>0.0152538752462616</v>
       </c>
       <c r="L24" t="n">
+        <v>0.0215259767634323</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.0128287719850237</v>
       </c>
-      <c r="M24" t="n">
-        <v>0.0172779528086668</v>
+      <c r="N24" t="n">
+        <v>0.0172967435924949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0120171698028742</v>
+        <v>0.0119063711491388</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0165890916064203</v>
+        <v>0.00907752598619112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00989036594592803</v>
+        <v>0.0086048316302538</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0100151269524146</v>
+        <v>0.0146924372393981</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0310544557629381</v>
+        <v>0.00653472527509869</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0187612304510516</v>
+        <v>0.00535320315336779</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0227376208198541</v>
+        <v>0.0110827394042915</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0130723435528894</v>
+        <v>0.00464070804192415</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0131075889679052</v>
+        <v>0.0148151584672819</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00252396374348413</v>
+        <v>0.00104999898438438</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00991089983051729</v>
+        <v>0.029726923605137</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0107425523139083</v>
+        <v>0.00778777596445997</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0121700417089161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.009010535423427</v>
+        <v>0.0104399476865167</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00907752598619112</v>
+        <v>0.0165890916064203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0086048316302538</v>
+        <v>0.00989036594592803</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0146924372393981</v>
+        <v>0.0100151269524146</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00653472527509869</v>
+        <v>0.0310544557629381</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00535320315336779</v>
+        <v>0.0187612304510516</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0110827394042915</v>
+        <v>0.0227376208198541</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00464070804192415</v>
+        <v>0.0130723435528894</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0148151584672819</v>
+        <v>0.0131075889679052</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00104812185219041</v>
+        <v>0.00252644039268457</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00778777596445997</v>
+        <v>0.000702518567778614</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0121938090949043</v>
+        <v>0.00991089983051729</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0107656849422539</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00812296359793623</v>
+        <v>0.00713092472690389</v>
       </c>
       <c r="C27" t="n">
         <v>0.00350243182293321</v>
@@ -1552,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00920285943740658</v>
+        <v>0.00920285943740657</v>
       </c>
       <c r="I27" t="n">
         <v>0.00406330755060314</v>
@@ -1561,21 +1642,24 @@
         <v>0.00175354533170313</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00244349580682892</v>
+        <v>0.00244904253328026</v>
       </c>
       <c r="L27" t="n">
+        <v>0.000973860412151021</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.0427009219060377</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.0125886412154348</v>
+      <c r="N27" t="n">
+        <v>0.012594454307753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0058120316135305</v>
+        <v>0.0052266294478726</v>
       </c>
       <c r="C28" t="n">
         <v>0.00737482626631724</v>
@@ -1602,13 +1686,16 @@
         <v>0.00982172308516785</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00161410398703662</v>
+        <v>0.00161112082099444</v>
       </c>
       <c r="L28" t="n">
+        <v>0.00167154353708458</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.00111371279413876</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.00610514612647652</v>
+      <c r="N28" t="n">
+        <v>0.00608704700164997</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_manual_positive.xlsx
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.187645998665555</v>
+        <v>0.187552845295846</v>
       </c>
       <c r="C2" t="n">
         <v>0.155049049537846</v>
@@ -545,7 +545,7 @@
         <v>0.148747885214624</v>
       </c>
       <c r="L2" t="n">
-        <v>0.199350535223962</v>
+        <v>0.19868491037302</v>
       </c>
       <c r="M2" t="n">
         <v>0.217293772928453</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.130811003218063</v>
+        <v>0.130903794941474</v>
       </c>
       <c r="C3" t="n">
         <v>0.104719010515957</v>
@@ -589,7 +589,7 @@
         <v>0.180220505762538</v>
       </c>
       <c r="L3" t="n">
-        <v>0.151274616031518</v>
+        <v>0.151937656748751</v>
       </c>
       <c r="M3" t="n">
         <v>0.179753923423249</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116425729604769</v>
+        <v>0.116502627844642</v>
       </c>
       <c r="C4" t="n">
         <v>0.136860857005065</v>
@@ -633,7 +633,7 @@
         <v>0.06127765344218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.12635990566512</v>
+        <v>0.126909379931198</v>
       </c>
       <c r="M4" t="n">
         <v>0.0515896604726919</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0982080308046094</v>
+        <v>0.098119127133103</v>
       </c>
       <c r="C5" t="n">
         <v>0.0917058147535666</v>
@@ -665,7 +665,7 @@
         <v>0.114100235889649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0728035233938244</v>
+        <v>0.0728035233938245</v>
       </c>
       <c r="I5" t="n">
         <v>0.0708964417657947</v>
@@ -677,7 +677,7 @@
         <v>0.158186878939349</v>
       </c>
       <c r="L5" t="n">
-        <v>0.106260428185545</v>
+        <v>0.105625169436669</v>
       </c>
       <c r="M5" t="n">
         <v>0.0806383056009429</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.071318996469291</v>
+        <v>0.0713439078565564</v>
       </c>
       <c r="C6" t="n">
         <v>0.0741837282467851</v>
@@ -721,7 +721,7 @@
         <v>0.157593492998312</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0363441561880306</v>
+        <v>0.036522159823188</v>
       </c>
       <c r="M6" t="n">
         <v>0.00259190550988809</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0636072212795829</v>
+        <v>0.0636446067471898</v>
       </c>
       <c r="C7" t="n">
         <v>0.0896140746897439</v>
@@ -747,7 +747,7 @@
         <v>0.108884350525352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0858533414654142</v>
+        <v>0.0858533414654141</v>
       </c>
       <c r="G7" t="n">
         <v>0.0975607494405382</v>
@@ -759,13 +759,13 @@
         <v>0.079985686823121</v>
       </c>
       <c r="J7" t="n">
-        <v>0.118360314710665</v>
+        <v>0.118360314710664</v>
       </c>
       <c r="K7" t="n">
         <v>0.0680631208811205</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0505581227709324</v>
+        <v>0.0508252596053925</v>
       </c>
       <c r="M7" t="n">
         <v>0.0410867296239337</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0567102100089364</v>
+        <v>0.056716904840166</v>
       </c>
       <c r="C8" t="n">
         <v>0.0681644444192423</v>
@@ -809,10 +809,10 @@
         <v>0.0211297482500614</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0137710151276838</v>
+        <v>0.0138188528608027</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0391807741221129</v>
+        <v>0.0391807741221128</v>
       </c>
       <c r="N8" t="n">
         <v>0.0775590701548773</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0522287419328314</v>
+        <v>0.0523198868477203</v>
       </c>
       <c r="C9" t="n">
         <v>0.0479623721967416</v>
@@ -844,7 +844,7 @@
         <v>0.04246620302967</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0707015260783738</v>
+        <v>0.0707015260783737</v>
       </c>
       <c r="J9" t="n">
         <v>0.0315047022112508</v>
@@ -853,7 +853,7 @@
         <v>0.0461159873455455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0639074611084843</v>
+        <v>0.0645587346005424</v>
       </c>
       <c r="M9" t="n">
         <v>0.0758940115477086</v>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0505645756823941</v>
+        <v>0.0505784877157686</v>
       </c>
       <c r="C10" t="n">
         <v>0.0845970196686673</v>
@@ -897,7 +897,7 @@
         <v>0.0235979065427813</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0315913772563159</v>
+        <v>0.0316907853096171</v>
       </c>
       <c r="M10" t="n">
         <v>0.0587990584499423</v>
@@ -955,10 +955,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0383870840024993</v>
+        <v>0.0384325784986486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0395786342861084</v>
+        <v>0.0395786342861085</v>
       </c>
       <c r="D12" t="n">
         <v>0.0487818237819246</v>
@@ -985,7 +985,7 @@
         <v>0.0158560033478798</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0376853014735801</v>
+        <v>0.0380103811493106</v>
       </c>
       <c r="M12" t="n">
         <v>0.131465249768177</v>
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0356634853072634</v>
+        <v>0.0356622264155928</v>
       </c>
       <c r="C13" t="n">
         <v>0.0556035637618826</v>
@@ -1029,7 +1029,7 @@
         <v>0.01465642245411</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0062494776605865</v>
+        <v>0.00624048228464645</v>
       </c>
       <c r="M13" t="n">
         <v>0.00631719344841046</v>
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0355885787538156</v>
+        <v>0.0355800343396342</v>
       </c>
       <c r="C14" t="n">
         <v>0.030729524546631</v>
@@ -1073,7 +1073,7 @@
         <v>0.00397780728331008</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0673804808734916</v>
+        <v>0.067319426996067</v>
       </c>
       <c r="M14" t="n">
         <v>0.0343854884448898</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342421099605133</v>
+        <v>0.0342537576791034</v>
       </c>
       <c r="C15" t="n">
         <v>0.030305657923262</v>
@@ -1117,7 +1117,7 @@
         <v>0.0275193643035382</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00312603369190846</v>
+        <v>0.0032092621459583</v>
       </c>
       <c r="M15" t="n">
         <v>0.023992666440179</v>
@@ -1131,13 +1131,13 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0339160339911325</v>
+        <v>0.0337267451643148</v>
       </c>
       <c r="C16" t="n">
         <v>0.0332293403901651</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0288072087618951</v>
+        <v>0.0288072087618952</v>
       </c>
       <c r="E16" t="n">
         <v>0.0694920364697837</v>
@@ -1161,7 +1161,7 @@
         <v>0.0696866711921813</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0458939677108768</v>
+        <v>0.0445414095851772</v>
       </c>
       <c r="M16" t="n">
         <v>0.0112727616955389</v>
@@ -1175,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0336508441344007</v>
+        <v>0.0336704797711714</v>
       </c>
       <c r="C17" t="n">
         <v>0.0526854603729941</v>
@@ -1187,7 +1187,7 @@
         <v>0.0640280585622313</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0753809880173563</v>
+        <v>0.0753809880173562</v>
       </c>
       <c r="G17" t="n">
         <v>0.0221341216928412</v>
@@ -1205,10 +1205,10 @@
         <v>0.0115703871752612</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00923907644804896</v>
+        <v>0.00937938235259657</v>
       </c>
       <c r="M17" t="n">
-        <v>0.040044343679294</v>
+        <v>0.0400443436792939</v>
       </c>
       <c r="N17" t="n">
         <v>0.0305575712718746</v>
@@ -1219,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0307919246649967</v>
+        <v>0.0307977545020423</v>
       </c>
       <c r="C18" t="n">
         <v>0.0203676587699959</v>
@@ -1249,7 +1249,7 @@
         <v>0.0270497555948125</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0109842920164606</v>
+        <v>0.0110259489573381</v>
       </c>
       <c r="M18" t="n">
         <v>0.0373011443462327</v>
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0304715950453333</v>
+        <v>0.0304715914718378</v>
       </c>
       <c r="C19" t="n">
         <v>0.045956693333221</v>
@@ -1293,10 +1293,10 @@
         <v>0.0161344633873434</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00834048767126055</v>
+        <v>0.00834046213694649</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0540707388839813</v>
+        <v>0.0540707388839814</v>
       </c>
       <c r="N19" t="n">
         <v>0.0258741821109691</v>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0283132997309832</v>
+        <v>0.0281522332945392</v>
       </c>
       <c r="C20" t="n">
         <v>0.0312222211204811</v>
@@ -1337,7 +1337,7 @@
         <v>0.00997916848674211</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0329667120531365</v>
+        <v>0.0318158162445872</v>
       </c>
       <c r="M20" t="n">
         <v>0.0218141152810248</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0226129960672542</v>
+        <v>0.0226486065467759</v>
       </c>
       <c r="C21" t="n">
         <v>0.0241898911268178</v>
@@ -1381,7 +1381,7 @@
         <v>0.0202799742717933</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0251584912876818</v>
+        <v>0.0254129449934118</v>
       </c>
       <c r="M21" t="n">
         <v>0.0513649398451783</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0217712449080202</v>
+        <v>0.0217827057741238</v>
       </c>
       <c r="C22" t="n">
         <v>0.0194263263457078</v>
@@ -1425,7 +1425,7 @@
         <v>0.0030966887031191</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0156890738334105</v>
+        <v>0.0157709671381374</v>
       </c>
       <c r="M22" t="n">
         <v>0.0475327715522933</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0210186463970641</v>
+        <v>0.0210176424079168</v>
       </c>
       <c r="C23" t="n">
         <v>0.0279188342765334</v>
@@ -1469,7 +1469,7 @@
         <v>0.0193850497422898</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00903014934085977</v>
+        <v>0.00902297536391615</v>
       </c>
       <c r="M23" t="n">
         <v>0.00525290947305643</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0203766474867591</v>
+        <v>0.0204093025768012</v>
       </c>
       <c r="C24" t="n">
         <v>0.0250159289856145</v>
@@ -1513,7 +1513,7 @@
         <v>0.0152538752462616</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0215259767634323</v>
+        <v>0.0217593128146107</v>
       </c>
       <c r="M24" t="n">
         <v>0.0128287719850237</v>
@@ -1527,10 +1527,10 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0119063711491388</v>
+        <v>0.0119128883661543</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00907752598619112</v>
+        <v>0.00907752598619113</v>
       </c>
       <c r="D25" t="n">
         <v>0.0086048316302538</v>
@@ -1557,7 +1557,7 @@
         <v>0.00104999898438438</v>
       </c>
       <c r="L25" t="n">
-        <v>0.029726923605137</v>
+        <v>0.0297734922007559</v>
       </c>
       <c r="M25" t="n">
         <v>0.00778777596445997</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0104399476865167</v>
+        <v>0.0104421356907805</v>
       </c>
       <c r="C26" t="n">
         <v>0.0165890916064203</v>
@@ -1601,7 +1601,7 @@
         <v>0.00252644039268457</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000702518567778614</v>
+        <v>0.000718152892296543</v>
       </c>
       <c r="M26" t="n">
         <v>0.00991089983051729</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00713092472690389</v>
+        <v>0.00713033521644372</v>
       </c>
       <c r="C27" t="n">
         <v>0.00350243182293321</v>
@@ -1645,7 +1645,7 @@
         <v>0.00244904253328026</v>
       </c>
       <c r="L27" t="n">
-        <v>0.000973860412151021</v>
+        <v>0.000969648081309871</v>
       </c>
       <c r="M27" t="n">
         <v>0.0427009219060377</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0052266294478726</v>
+        <v>0.00522839227819404</v>
       </c>
       <c r="C28" t="n">
         <v>0.00737482626631724</v>
@@ -1689,7 +1689,7 @@
         <v>0.00161112082099444</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00167154353708458</v>
+        <v>0.00168413979284664</v>
       </c>
       <c r="M28" t="n">
         <v>0.00111371279413876</v>
